--- a/SS201 23-1 Syllabus (Draft).xlsx
+++ b/SS201 23-1 Syllabus (Draft).xlsx
@@ -1891,8 +1891,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100191F6B10415C8C49BA03E9B44330F302" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="364952d4d6ab36ada6e7acec24b37da4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84f26b50-9c23-4a46-98fb-ee8fb2c6a919" xmlns:ns3="0d21ce45-ac74-4917-b707-0621347fb97b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b176d951c9e5e7c1f99f91737d602776" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100191F6B10415C8C49BA03E9B44330F302" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c1a4d5ec58192d5ab26d51419392238">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84f26b50-9c23-4a46-98fb-ee8fb2c6a919" xmlns:ns3="0d21ce45-ac74-4917-b707-0621347fb97b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc503ff92add85f01c6cc299394eef9b" ns2:_="" ns3:_="">
     <xsd:import namespace="84f26b50-9c23-4a46-98fb-ee8fb2c6a919"/>
     <xsd:import namespace="0d21ce45-ac74-4917-b707-0621347fb97b"/>
     <xsd:element name="properties">
@@ -1914,6 +1914,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1983,6 +1985,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b362c7eb-5c45-4d0a-8479-4b30401fcacf" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0d21ce45-ac74-4917-b707-0621347fb97b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2012,6 +2021,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{39ea5a88-3594-42fc-84af-1eee3aec895e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0d21ce45-ac74-4917-b707-0621347fb97b">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2197,27 +2217,16 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
+    <TaxCatchAll xmlns="0d21ce45-ac74-4917-b707-0621347fb97b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84f26b50-9c23-4a46-98fb-ee8fb2c6a919">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09A992C-ACB7-41FF-83E6-05E1EDCCD539}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="84f26b50-9c23-4a46-98fb-ee8fb2c6a919"/>
-    <ds:schemaRef ds:uri="0d21ce45-ac74-4917-b707-0621347fb97b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7FA69A6-DB29-4343-9FF6-0A3BBBA7B195}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
